--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>64.154275</v>
+        <v>0.09397566666666667</v>
       </c>
       <c r="N2">
-        <v>192.462825</v>
+        <v>0.281927</v>
       </c>
       <c r="O2">
-        <v>0.9711753522845754</v>
+        <v>0.001414110383612609</v>
       </c>
       <c r="P2">
-        <v>0.9711753522845754</v>
+        <v>0.001414110383612609</v>
       </c>
       <c r="Q2">
-        <v>10418.60915954467</v>
+        <v>18.93043411026178</v>
       </c>
       <c r="R2">
-        <v>93767.48243590207</v>
+        <v>170.373906992356</v>
       </c>
       <c r="S2">
-        <v>0.3797656596441827</v>
+        <v>0.0006835102868801436</v>
       </c>
       <c r="T2">
-        <v>0.3797656596441827</v>
+        <v>0.0006835102868801435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.904109666666667</v>
+        <v>64.154275</v>
       </c>
       <c r="N3">
-        <v>5.712329</v>
+        <v>192.462825</v>
       </c>
       <c r="O3">
-        <v>0.02882464771542451</v>
+        <v>0.9653693306845974</v>
       </c>
       <c r="P3">
-        <v>0.02882464771542451</v>
+        <v>0.9653693306845973</v>
       </c>
       <c r="Q3">
-        <v>309.226071277571</v>
+        <v>12923.22064696657</v>
       </c>
       <c r="R3">
-        <v>2783.034641498139</v>
+        <v>116308.9858226991</v>
       </c>
       <c r="S3">
-        <v>0.01127150861881818</v>
+        <v>0.4666112884878456</v>
       </c>
       <c r="T3">
-        <v>0.01127150861881818</v>
+        <v>0.4666112884878456</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.41736466666667</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>196.252094</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.1575168212364948</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.1575168212364948</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.154275</v>
+        <v>2.132189</v>
       </c>
       <c r="N4">
-        <v>192.462825</v>
+        <v>6.396567</v>
       </c>
       <c r="O4">
-        <v>0.9711753522845754</v>
+        <v>0.03208437579293135</v>
       </c>
       <c r="P4">
-        <v>0.9711753522845754</v>
+        <v>0.03208437579293135</v>
       </c>
       <c r="Q4">
-        <v>4196.803602600617</v>
+        <v>429.5076034766973</v>
       </c>
       <c r="R4">
-        <v>37771.23242340555</v>
+        <v>3865.568431290276</v>
       </c>
       <c r="S4">
-        <v>0.1529764543550994</v>
+        <v>0.01550798378735651</v>
       </c>
       <c r="T4">
-        <v>0.1529764543550994</v>
+        <v>0.01550798378735651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.41736466666667</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H5">
-        <v>196.252094</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I5">
-        <v>0.1575168212364948</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J5">
-        <v>0.1575168212364948</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.904109666666667</v>
+        <v>0.07524</v>
       </c>
       <c r="N5">
-        <v>5.712329</v>
+        <v>0.22572</v>
       </c>
       <c r="O5">
-        <v>0.02882464771542451</v>
+        <v>0.001132183138858776</v>
       </c>
       <c r="P5">
-        <v>0.02882464771542451</v>
+        <v>0.001132183138858776</v>
       </c>
       <c r="Q5">
-        <v>124.5618364296585</v>
+        <v>15.15632623824</v>
       </c>
       <c r="R5">
-        <v>1121.056527866926</v>
+        <v>136.40693614416</v>
       </c>
       <c r="S5">
-        <v>0.004540366881395461</v>
+        <v>0.0005472407465570378</v>
       </c>
       <c r="T5">
-        <v>0.004540366881395461</v>
+        <v>0.0005472407465570378</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.180387</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H6">
-        <v>183.541161</v>
+        <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>64.154275</v>
+        <v>0.09397566666666667</v>
       </c>
       <c r="N6">
-        <v>192.462825</v>
+        <v>0.281927</v>
       </c>
       <c r="O6">
-        <v>0.9711753522845754</v>
+        <v>0.001414110383612609</v>
       </c>
       <c r="P6">
-        <v>0.9711753522845754</v>
+        <v>0.001414110383612609</v>
       </c>
       <c r="Q6">
-        <v>3924.983372204425</v>
+        <v>6.147640456126445</v>
       </c>
       <c r="R6">
-        <v>35324.85034983983</v>
+        <v>55.328764105138</v>
       </c>
       <c r="S6">
-        <v>0.1430684150457953</v>
+        <v>0.0002219693149839159</v>
       </c>
       <c r="T6">
-        <v>0.1430684150457953</v>
+        <v>0.0002219693149839159</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.180387</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H7">
-        <v>183.541161</v>
+        <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.904109666666667</v>
+        <v>64.154275</v>
       </c>
       <c r="N7">
-        <v>5.712329</v>
+        <v>192.462825</v>
       </c>
       <c r="O7">
-        <v>0.02882464771542451</v>
+        <v>0.9653693306845974</v>
       </c>
       <c r="P7">
-        <v>0.02882464771542451</v>
+        <v>0.9653693306845973</v>
       </c>
       <c r="Q7">
-        <v>116.4941662971077</v>
+        <v>4196.803602600617</v>
       </c>
       <c r="R7">
-        <v>1048.447496673969</v>
+        <v>37771.23242340555</v>
       </c>
       <c r="S7">
-        <v>0.004246294609102474</v>
+        <v>0.1515315717370783</v>
       </c>
       <c r="T7">
-        <v>0.004246294609102474</v>
+        <v>0.1515315717370783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.3069433333333</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H8">
-        <v>378.92083</v>
+        <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.3041313008456065</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J8">
-        <v>0.3041313008456065</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.154275</v>
+        <v>2.132189</v>
       </c>
       <c r="N8">
-        <v>192.462825</v>
+        <v>6.396567</v>
       </c>
       <c r="O8">
-        <v>0.9711753522845754</v>
+        <v>0.03208437579293135</v>
       </c>
       <c r="P8">
-        <v>0.9711753522845754</v>
+        <v>0.03208437579293135</v>
       </c>
       <c r="Q8">
-        <v>8103.130377016083</v>
+        <v>139.4821853512553</v>
       </c>
       <c r="R8">
-        <v>72928.17339314475</v>
+        <v>1255.339668161298</v>
       </c>
       <c r="S8">
-        <v>0.295364823239498</v>
+        <v>0.0050362029718286</v>
       </c>
       <c r="T8">
-        <v>0.2953648232394981</v>
+        <v>0.005036202971828601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>65.41736466666667</v>
+      </c>
+      <c r="H9">
+        <v>196.252094</v>
+      </c>
+      <c r="I9">
+        <v>0.1569674599353791</v>
+      </c>
+      <c r="J9">
+        <v>0.1569674599353792</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.07524</v>
+      </c>
+      <c r="N9">
+        <v>0.22572</v>
+      </c>
+      <c r="O9">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="P9">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="Q9">
+        <v>4.92200251752</v>
+      </c>
+      <c r="R9">
+        <v>44.29802265768</v>
+      </c>
+      <c r="S9">
+        <v>0.0001777159114883267</v>
+      </c>
+      <c r="T9">
+        <v>0.0001777159114883267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>126.3069433333333</v>
-      </c>
-      <c r="H9">
-        <v>378.92083</v>
-      </c>
-      <c r="I9">
-        <v>0.3041313008456065</v>
-      </c>
-      <c r="J9">
-        <v>0.3041313008456065</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.904109666666667</v>
-      </c>
-      <c r="N9">
-        <v>5.712329</v>
-      </c>
-      <c r="O9">
-        <v>0.02882464771542451</v>
-      </c>
-      <c r="P9">
-        <v>0.02882464771542451</v>
-      </c>
-      <c r="Q9">
-        <v>240.5022717681189</v>
-      </c>
-      <c r="R9">
-        <v>2164.52044591307</v>
-      </c>
-      <c r="S9">
-        <v>0.008766477606108394</v>
-      </c>
-      <c r="T9">
-        <v>0.008766477606108396</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>60.43484133333334</v>
+      </c>
+      <c r="H10">
+        <v>181.304524</v>
+      </c>
+      <c r="I10">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="J10">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.09397566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.281927</v>
+      </c>
+      <c r="O10">
+        <v>0.001414110383612609</v>
+      </c>
+      <c r="P10">
+        <v>0.001414110383612609</v>
+      </c>
+      <c r="Q10">
+        <v>5.679404504194222</v>
+      </c>
+      <c r="R10">
+        <v>51.114640537748</v>
+      </c>
+      <c r="S10">
+        <v>0.0002050629890133296</v>
+      </c>
+      <c r="T10">
+        <v>0.0002050629890133296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>60.43484133333334</v>
+      </c>
+      <c r="H11">
+        <v>181.304524</v>
+      </c>
+      <c r="I11">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="J11">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>64.154275</v>
+      </c>
+      <c r="N11">
+        <v>192.462825</v>
+      </c>
+      <c r="O11">
+        <v>0.9653693306845974</v>
+      </c>
+      <c r="P11">
+        <v>0.9653693306845973</v>
+      </c>
+      <c r="Q11">
+        <v>3877.153430480033</v>
+      </c>
+      <c r="R11">
+        <v>34894.3808743203</v>
+      </c>
+      <c r="S11">
+        <v>0.1399901469829047</v>
+      </c>
+      <c r="T11">
+        <v>0.1399901469829047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>60.43484133333334</v>
+      </c>
+      <c r="H12">
+        <v>181.304524</v>
+      </c>
+      <c r="I12">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="J12">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.132189</v>
+      </c>
+      <c r="N12">
+        <v>6.396567</v>
+      </c>
+      <c r="O12">
+        <v>0.03208437579293135</v>
+      </c>
+      <c r="P12">
+        <v>0.03208437579293135</v>
+      </c>
+      <c r="Q12">
+        <v>128.8585039076787</v>
+      </c>
+      <c r="R12">
+        <v>1159.726535169108</v>
+      </c>
+      <c r="S12">
+        <v>0.004652619821599304</v>
+      </c>
+      <c r="T12">
+        <v>0.004652619821599304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>60.43484133333334</v>
+      </c>
+      <c r="H13">
+        <v>181.304524</v>
+      </c>
+      <c r="I13">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="J13">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.07524</v>
+      </c>
+      <c r="N13">
+        <v>0.22572</v>
+      </c>
+      <c r="O13">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="P13">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="Q13">
+        <v>4.54711746192</v>
+      </c>
+      <c r="R13">
+        <v>40.92405715728</v>
+      </c>
+      <c r="S13">
+        <v>0.0001641801525930073</v>
+      </c>
+      <c r="T13">
+        <v>0.0001641801525930073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H14">
+        <v>268.396625</v>
+      </c>
+      <c r="I14">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J14">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.09397566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.281927</v>
+      </c>
+      <c r="O14">
+        <v>0.001414110383612609</v>
+      </c>
+      <c r="P14">
+        <v>0.001414110383612609</v>
+      </c>
+      <c r="Q14">
+        <v>8.407583921819446</v>
+      </c>
+      <c r="R14">
+        <v>75.66825529637501</v>
+      </c>
+      <c r="S14">
+        <v>0.0003035677927352203</v>
+      </c>
+      <c r="T14">
+        <v>0.0003035677927352202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H15">
+        <v>268.396625</v>
+      </c>
+      <c r="I15">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J15">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>64.154275</v>
+      </c>
+      <c r="N15">
+        <v>192.462825</v>
+      </c>
+      <c r="O15">
+        <v>0.9653693306845974</v>
+      </c>
+      <c r="P15">
+        <v>0.9653693306845973</v>
+      </c>
+      <c r="Q15">
+        <v>5739.596963107292</v>
+      </c>
+      <c r="R15">
+        <v>51656.37266796563</v>
+      </c>
+      <c r="S15">
+        <v>0.2072363234767687</v>
+      </c>
+      <c r="T15">
+        <v>0.2072363234767687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H16">
+        <v>268.396625</v>
+      </c>
+      <c r="I16">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J16">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.132189</v>
+      </c>
+      <c r="N16">
+        <v>6.396567</v>
+      </c>
+      <c r="O16">
+        <v>0.03208437579293135</v>
+      </c>
+      <c r="P16">
+        <v>0.03208437579293135</v>
+      </c>
+      <c r="Q16">
+        <v>190.7574438207083</v>
+      </c>
+      <c r="R16">
+        <v>1716.816994386375</v>
+      </c>
+      <c r="S16">
+        <v>0.006887569212146937</v>
+      </c>
+      <c r="T16">
+        <v>0.006887569212146938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H17">
+        <v>268.396625</v>
+      </c>
+      <c r="I17">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J17">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.07524</v>
+      </c>
+      <c r="N17">
+        <v>0.22572</v>
+      </c>
+      <c r="O17">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="P17">
+        <v>0.001132183138858776</v>
+      </c>
+      <c r="Q17">
+        <v>6.731387355000002</v>
+      </c>
+      <c r="R17">
+        <v>60.58248619500001</v>
+      </c>
+      <c r="S17">
+        <v>0.0002430463282204043</v>
+      </c>
+      <c r="T17">
+        <v>0.0002430463282204043</v>
       </c>
     </row>
   </sheetData>
